--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1205</v>
+        <v>2935</v>
       </c>
       <c r="E4" t="n">
-        <v>4872</v>
+        <v>5319</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>501 (41.6)</t>
+          <t>783 (26.7)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1808 (37.1)</t>
+          <t>2027 (38.1)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>280 (23.2)</t>
+          <t>686 (23.4)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1113 (22.8)</t>
+          <t>1202 (22.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>243 (20.2)</t>
+          <t>761 (25.9)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1094 (22.5)</t>
+          <t>1168 (22.0)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>181 (15.0)</t>
+          <t>705 (24.0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>857 (17.6)</t>
+          <t>922 (17.3)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>549 (45.6)</t>
+          <t>1237 (42.1)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2042 (41.9)</t>
+          <t>2234 (42.0)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>455 (37.8)</t>
+          <t>1154 (39.3)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2375 (48.7)</t>
+          <t>2608 (49.0)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>171 (14.2)</t>
+          <t>338 (11.5)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>302 (6.2)</t>
+          <t>326 (6.1)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>579 (48.0)</t>
+          <t>1443 (49.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2195 (45.1)</t>
+          <t>2385 (44.8)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>385 (32.0)</t>
+          <t>666 (22.7)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>241 (4.9)</t>
+          <t>268 (5.0)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84 (7.0)</t>
+          <t>164 (5.6)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>510 (10.5)</t>
+          <t>545 (10.2)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>440 (36.5)</t>
+          <t>1069 (36.4)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2049 (42.1)</t>
+          <t>2213 (41.6)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>266 (22.1)</t>
+          <t>805 (27.4)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1026 (21.1)</t>
+          <t>1289 (24.2)</t>
         </is>
       </c>
     </row>
@@ -811,19 +811,19 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>380 (31.5)</t>
+          <t>1035 (35.3)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1471 (30.2)</t>
+          <t>1791 (33.7)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Mechanical Ventilation (whole stay), n (%)</t>
+          <t>MV initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -836,19 +836,19 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>920 (76.3)</t>
+          <t>2308 (78.6)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3856 (79.1)</t>
+          <t>4015 (75.5)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>RRT (whole stay), n (%)</t>
+          <t>RRT initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>250 (20.7)</t>
+          <t>458 (15.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>642 (12.1)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Vasopressors (whole stay), n (%)</t>
+          <t>Vasopressor initiated until the cohort day, n (%)</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -886,24 +886,24 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>730 (60.6)</t>
+          <t>1733 (59.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3212 (65.9)</t>
+          <t>3275 (61.6)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Insulin Transfusion (whole stay), n (%)</t>
+          <t>Mechanical Ventilation (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -911,24 +911,24 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>853 (70.8)</t>
+          <t>2420 (82.5)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3290 (67.5)</t>
+          <t>4248 (79.9)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Blood Transufusion (whole stay), n (%)</t>
+          <t>RRT (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -936,24 +936,24 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>167 (13.9)</t>
+          <t>597 (20.3)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>874 (16.4)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fluids Received (whole stay), n (%)</t>
+          <t>Vasopressors (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -961,19 +961,19 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1197 (99.3)</t>
+          <t>1898 (64.7)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4850 (99.5)</t>
+          <t>3585 (67.4)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Hypertension, n (%)</t>
+          <t>Insulin Transfusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -986,19 +986,19 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>861 (71.5)</t>
+          <t>2024 (69.0)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3165 (65.0)</t>
+          <t>3646 (68.5)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Congestive Heart Failure, n (%)</t>
+          <t>Blood Transufusion (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>481 (39.9)</t>
+          <t>411 (14.0)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1884 (38.7)</t>
+          <t>814 (15.3)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>COPD, n (%)</t>
+          <t>Fluids Received (whole stay), n (%)</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1036,19 +1036,19 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>299 (24.8)</t>
+          <t>2921 (99.5)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>1262 (25.9)</t>
+          <t>5297 (99.6)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Asthma, n (%)</t>
+          <t>Hypertension, n (%)</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
@@ -1061,19 +1061,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>16 (1.3)</t>
+          <t>1943 (66.2)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>85 (1.7)</t>
+          <t>3433 (64.5)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Coronary Artery Disease, n (%)</t>
+          <t>Congestive Heart Failure, n (%)</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1086,109 +1086,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>347 (28.8)</t>
+          <t>1054 (35.9)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1776 (36.5)</t>
+          <t>2077 (39.0)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
+          <t>COPD, n (%)</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>713 (24.3)</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1385 (26.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Asthma, n (%)</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>37 (1.3)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>101 (1.9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Coronary Artery Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>892 (30.4)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1933 (36.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
           <t>CKD Stage, n (%)</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>1 (0.1)</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>8 (0.7)</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>32 (0.7)</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>3.0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>95 (7.9)</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>239 (4.9)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>34 (2.8)</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>90 (1.8)</t>
-        </is>
-      </c>
+          <t>2 (0.1)</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>143 (11.9)</t>
+          <t>18 (0.6)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>245 (5.0)</t>
+          <t>34 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1196,43 +1214,37 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>924 (76.7)</t>
+          <t>164 (5.6)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4266 (87.6)</t>
+          <t>255 (4.8)</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>59 (2.0)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>138 (2.8)</t>
+          <t>98 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1240,18 +1252,18 @@
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>486 (40.3)</t>
+          <t>226 (7.7)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1359 (27.9)</t>
+          <t>273 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1265,19 +1277,19 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>684 (56.8)</t>
+          <t>2466 (84.0)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3375 (69.3)</t>
+          <t>4659 (87.6)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Diabetes Type, n (%)</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,69 +1302,57 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>52 (4.3)</t>
+          <t>63 (2.1)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>225 (4.6)</t>
+          <t>150 (2.8)</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Pneumonia, n (%)</t>
-        </is>
-      </c>
+      <c r="A39" s="1" t="n"/>
       <c r="B39" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>74 (6.1)</t>
+          <t>978 (33.3)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>287 (5.9)</t>
+          <t>1475 (27.7)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Urinary Tract Infection, n (%)</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>1894 (64.5)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>29 (0.6)</t>
+          <t>3694 (69.4)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
+          <t>Connective Tissue Disease, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1363,17 +1363,21 @@
       <c r="C41" t="n">
         <v>0</v>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>116 (4.0)</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>9 (0.2)</t>
+          <t>250 (4.7)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
+          <t>Pneumonia, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1386,24 +1390,24 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 (0.2)</t>
+          <t>186 (6.3)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6 (0.1)</t>
+          <t>306 (5.8)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>MV_elig_day, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1411,24 +1415,24 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>33 (2.7)</t>
+          <t>17 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>106 (2.2)</t>
+          <t>33 (0.6)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>RRT_elig_day, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1436,24 +1440,24 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>19 (1.6)</t>
+          <t>1 (0.0)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>52 (1.1)</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>VP_elig_day, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -1461,1288 +1465,988 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>27 (2.2)</t>
+          <t>2 (0.1)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>96 (2.0)</t>
+          <t>6 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>740 (61.4)</t>
+          <t>64 [51,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3043 (62.5)</t>
+          <t>67 [56,77]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>126 (10.5)</t>
+          <t>9.50 [6.83,14.08]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>286 (5.9)</t>
+          <t>9.33 [6.71,14.04]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 1, n (%)</t>
-        </is>
-      </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2094</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>545 (45.2)</t>
+          <t>9.46 [6.63,14.75]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2433 (49.9)</t>
+          <t>8.75 [6.33,13.79]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>63 (5.2)</t>
+          <t>14.00 [9.00,22.00]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>328 (6.7)</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>2094</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>39 (3.2)</t>
+          <t>19.00 [13.00,28.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>127 (2.6)</t>
+          <t>17.00 [12.00,26.00]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 2, n (%)</t>
-        </is>
-      </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>61 (5.1)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>282 (5.8)</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>38 (3.2)</t>
+          <t>6 [4,10]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>177 (3.6)</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>2126</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>22 (1.8)</t>
+          <t>3 [1,4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>96 (2.0)</t>
+          <t>3 [2,3]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 3, n (%)</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>153 (3.1)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>MV initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>2806</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>33 (2.7)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>105 (2.2)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>RRT initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>17 (1.4)</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>50 (1.0)</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor initiated in day 4, n (%)</t>
-        </is>
-      </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>26 (2.2)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>91 (1.9)</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>67 [56,77]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>sofa_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>4785</v>
+        <v>8</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>8.58 [6.63,12.65]</t>
+          <t>6.0 [3.0,9.0]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>9.00 [6.63,13.07]</t>
+          <t>6.0 [4.0,9.0]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1292</v>
+        <v>8</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8.96 [6.25,13.42]</t>
+          <t>2.0 [0.0,3.0]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>8.48 [6.25,12.96]</t>
+          <t>2.0 [0.0,3.0]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>4785</v>
+        <v>8</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14.00 [9.00,22.00]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>14.00 [9.00,21.00]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>liver_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1292</v>
+        <v>8</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>18.00 [12.00,27.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>17.00 [12.00,25.00]</t>
+          <t>0.0 [0.0,0.0]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>1.0 [1.0,4.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>1.0 [1.0,4.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>cns_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0.0 [0.0,1.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>renal_max_0_24h, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1680</v>
+        <v>8</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3 [2,3]</t>
+          <t>1.0 [0.0,2.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>12</v>
+        <v>2900</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>998 [345,1734]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>950 [302,1771]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2157</v>
+        <v>36</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>6110 [3037,11206]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>5294 [2518,9883]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>581.4 [331.0,954.9]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>531.2 [291.0,873.8]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>21</v>
+        <v>4023</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0 [0,2]</t>
+          <t>50 [40,61]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>1586</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>78.0 [34.0,152.2]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>66.0 [28.0,131.0]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>SOFA (day), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>16</v>
+        <v>1586</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>4.0 [2.0,7.0]</t>
+          <t>0.32 [0.14,0.52]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4.0 [2.0,7.0]</t>
+          <t>0.28 [0.13,0.47]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (day), median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>16</v>
+        <v>1586</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>2.0 [1.0,10.0]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (day), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>6783</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>27.0 [7.0,88.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>41.5 [10.0,100.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (day), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>16</v>
+        <v>2719</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>4.0 [1.0,25.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>5.0 [1.0,25.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (day), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>16</v>
+        <v>2719</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>1.0 [0.0,1.0]</t>
+          <t>60.0 [18.0,126.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.0 [1.0,1.0]</t>
+          <t>56.0 [20.0,112.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (day), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>16</v>
+        <v>2719</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.23 [0.07,0.49]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (day), median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>19.8 [17.4,23.0]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0.0 [0.0,2.0]</t>
+          <t>19.6 [17.3,22.7]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (day), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>1923</v>
+        <v>21</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>495 [200,1033]</t>
+          <t>77.2 [71.1,85.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>500 [224,1038]</t>
+          <t>75.2 [69.5,82.4]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>30</v>
+        <v>473</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>5241 [2500,9579]</t>
+          <t>37.0 [36.7,37.4]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>4938 [2351,9048]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>543.2 [291.7,925.1]</t>
+          <t>97.7 [96.0,99.0]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>522.8 [278.3,863.5]</t>
+          <t>97.2 [95.6,98.6]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>3237</v>
+        <v>21</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>40 [40,50]</t>
+          <t>87.3 [76.3,100.5]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>47 [40,55]</t>
+          <t>87.7 [76.3,100.4]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1301</v>
+        <v>1777</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>70.0 [30.0,131.2]</t>
+          <t>85.0 [68.0,117.0]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>61.0 [25.0,117.0]</t>
+          <t>84.0 [68.0,111.0]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>1301</v>
+        <v>1777</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.50]</t>
+          <t>45.0 [38.0,54.0]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0.27 [0.12,0.46]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>1301</v>
+        <v>984</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>3.0 [1.0,17.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B85" s="1" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>5099</v>
+        <v>30</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>22.5 [5.0,73.2]</t>
+          <t>158.0 [127.0,215.0]</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>38.5 [8.8,87.0]</t>
+          <t>155.0 [124.0,204.0]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B86" s="1" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>2098</v>
+        <v>14</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.5]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4.0 [1.0,23.0]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B87" s="1" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>2098</v>
+        <v>16</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>48.0 [16.0,107.0]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>51.0 [19.0,103.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B88" s="1" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>2098</v>
+        <v>8054</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.21 [0.06,0.45]</t>
+          <t>23.4 [13.6,36.9]</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.45]</t>
+          <t>23.6 [13.3,39.2]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B89" s="1" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>12</v>
+        <v>1102</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>19.8 [17.5,22.4]</t>
+          <t>10.1 [8.5,11.8]</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>19.7 [17.6,22.2]</t>
+          <t>10.1 [8.5,11.7]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B90" s="1" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>11</v>
+        <v>5234</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>79.1 [72.8,86.6]</t>
+          <t>237.0 [159.0,362.0]</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>76.3 [71.1,83.4]</t>
+          <t>242.0 [161.0,373.0]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B91" s="1" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>118</v>
+        <v>398</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.4]</t>
+          <t>1.3 [1.1,1.7]</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>SpO2 (%, mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B92" s="1" t="inlineStr"/>
-      <c r="C92" t="n">
-        <v>11</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>97.7 [96.3,98.8]</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>96.9 [95.7,97.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>Heart Rate (mean), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B93" s="1" t="inlineStr"/>
-      <c r="C93" t="n">
-        <v>11</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>87.0 [77.8,97.4]</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>86.9 [77.4,96.7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>PaO2 (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B94" s="1" t="inlineStr"/>
-      <c r="C94" t="n">
-        <v>801</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>73.0 [60.0,96.0]</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>72.0 [62.0,88.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>PaCO2 (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B95" s="1" t="inlineStr"/>
-      <c r="C95" t="n">
-        <v>801</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>47.0 [40.0,56.0]</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>48.0 [42.0,56.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>pH (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr"/>
-      <c r="C96" t="n">
-        <v>365</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B97" s="1" t="inlineStr"/>
-      <c r="C97" t="n">
-        <v>3</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>192.0 [152.0,266.0]</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>179.0 [149.0,238.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B98" s="1" t="inlineStr"/>
-      <c r="C98" t="n">
-        <v>3</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>135.0 [132.0,138.0]</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>135.0 [132.0,138.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B99" s="1" t="inlineStr"/>
-      <c r="C99" t="n">
-        <v>3</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>4.8 [4.4,5.6]</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>4.8 [4.4,5.3]</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B100" s="1" t="inlineStr"/>
-      <c r="C100" t="n">
-        <v>5990</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>19.0 [10.5,33.9]</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>18.9 [9.1,28.9]</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr"/>
-      <c r="C101" t="n">
-        <v>178</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9.2 [8.1,10.7]</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>9.5 [8.4,10.8]</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B102" s="1" t="inlineStr"/>
-      <c r="C102" t="n">
-        <v>3278</v>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>249.0 [155.0,387.0]</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>260.0 [167.0,411.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="inlineStr">
-        <is>
-          <t>INR (max), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B103" s="1" t="inlineStr"/>
-      <c r="C103" t="n">
-        <v>64</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,2.0]</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>1.5 [1.2,2.0]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A32:A37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>2935</v>
+        <v>1205</v>
       </c>
       <c r="E4" t="n">
-        <v>5319</v>
+        <v>4872</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>783 (26.7)</t>
+          <t>501 (41.6)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2027 (38.1)</t>
+          <t>1808 (37.1)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>686 (23.4)</t>
+          <t>280 (23.2)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1202 (22.6)</t>
+          <t>1113 (22.8)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>761 (25.9)</t>
+          <t>243 (20.2)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1168 (22.0)</t>
+          <t>1094 (22.5)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>705 (24.0)</t>
+          <t>181 (15.0)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>922 (17.3)</t>
+          <t>857 (17.6)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1237 (42.1)</t>
+          <t>549 (45.6)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2234 (42.0)</t>
+          <t>2042 (41.9)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1154 (39.3)</t>
+          <t>455 (37.8)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2608 (49.0)</t>
+          <t>2375 (48.7)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>338 (11.5)</t>
+          <t>171 (14.2)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>326 (6.1)</t>
+          <t>302 (6.2)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1443 (49.2)</t>
+          <t>579 (48.0)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2385 (44.8)</t>
+          <t>2195 (45.1)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>666 (22.7)</t>
+          <t>385 (32.0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>268 (5.0)</t>
+          <t>241 (4.9)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>164 (5.6)</t>
+          <t>84 (7.0)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>545 (10.2)</t>
+          <t>510 (10.5)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1069 (36.4)</t>
+          <t>440 (36.5)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2213 (41.6)</t>
+          <t>2049 (42.1)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>805 (27.4)</t>
+          <t>266 (22.1)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1289 (24.2)</t>
+          <t>1026 (21.1)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1035 (35.3)</t>
+          <t>380 (31.5)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1791 (33.7)</t>
+          <t>1471 (30.2)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2308 (78.6)</t>
+          <t>874 (72.5)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4015 (75.5)</t>
+          <t>3653 (75.0)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>458 (15.6)</t>
+          <t>204 (16.9)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>642 (12.1)</t>
+          <t>559 (11.5)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1733 (59.0)</t>
+          <t>667 (55.4)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3275 (61.6)</t>
+          <t>2959 (60.7)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2420 (82.5)</t>
+          <t>920 (76.3)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4248 (79.9)</t>
+          <t>3856 (79.1)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>597 (20.3)</t>
+          <t>250 (20.7)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>874 (16.4)</t>
+          <t>728 (14.9)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1898 (64.7)</t>
+          <t>730 (60.6)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3585 (67.4)</t>
+          <t>3212 (65.9)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024 (69.0)</t>
+          <t>853 (70.8)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3646 (68.5)</t>
+          <t>3290 (67.5)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>411 (14.0)</t>
+          <t>167 (13.9)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>814 (15.3)</t>
+          <t>728 (14.9)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2921 (99.5)</t>
+          <t>1197 (99.3)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5297 (99.6)</t>
+          <t>4850 (99.5)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1943 (66.2)</t>
+          <t>861 (71.5)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3433 (64.5)</t>
+          <t>3165 (65.0)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1054 (35.9)</t>
+          <t>481 (39.9)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2077 (39.0)</t>
+          <t>1884 (38.7)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>713 (24.3)</t>
+          <t>299 (24.8)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1385 (26.0)</t>
+          <t>1262 (25.9)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>37 (1.3)</t>
+          <t>16 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>101 (1.9)</t>
+          <t>85 (1.7)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>892 (30.4)</t>
+          <t>347 (28.8)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1933 (36.3)</t>
+          <t>1776 (36.5)</t>
         </is>
       </c>
     </row>
@@ -1186,7 +1186,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18 (0.6)</t>
+          <t>8 (0.7)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>34 (0.6)</t>
+          <t>32 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>164 (5.6)</t>
+          <t>95 (7.9)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>255 (4.8)</t>
+          <t>239 (4.9)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>59 (2.0)</t>
+          <t>34 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>98 (1.8)</t>
+          <t>90 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>226 (7.7)</t>
+          <t>143 (11.9)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>273 (5.1)</t>
+          <t>245 (5.0)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2466 (84.0)</t>
+          <t>924 (76.7)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4659 (87.6)</t>
+          <t>4266 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>63 (2.1)</t>
+          <t>35 (2.9)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>150 (2.8)</t>
+          <t>138 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>978 (33.3)</t>
+          <t>486 (40.3)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1475 (27.7)</t>
+          <t>1359 (27.9)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1894 (64.5)</t>
+          <t>684 (56.8)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3694 (69.4)</t>
+          <t>3375 (69.3)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>116 (4.0)</t>
+          <t>52 (4.3)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>250 (4.7)</t>
+          <t>225 (4.6)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>186 (6.3)</t>
+          <t>74 (6.1)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>306 (5.8)</t>
+          <t>287 (5.9)</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>17 (0.6)</t>
+          <t>8 (0.7)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33 (0.6)</t>
+          <t>29 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1438,14 +1438,10 @@
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>1 (0.0)</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>9 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1465,7 +1461,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 (0.1)</t>
+          <t>2 (0.2)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1486,7 +1482,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,75]</t>
+          <t>64 [51,74]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1503,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>6160</v>
+        <v>4785</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9.50 [6.83,14.08]</t>
+          <t>8.58 [6.63,12.65]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.33 [6.71,14.04]</t>
+          <t>9.00 [6.63,13.07]</t>
         </is>
       </c>
     </row>
@@ -1524,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>2094</v>
+        <v>1292</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.46 [6.63,14.75]</t>
+          <t>8.96 [6.25,13.42]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.75 [6.33,13.79]</t>
+          <t>8.48 [6.25,12.96]</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1541,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>6160</v>
+        <v>4785</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1554,7 +1550,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>14.00 [9.00,21.00]</t>
         </is>
       </c>
     </row>
@@ -1566,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>2094</v>
+        <v>1292</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19.00 [13.00,28.00]</t>
+          <t>18.00 [12.00,27.00]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17.00 [12.00,26.00]</t>
+          <t>17.00 [12.00,25.00]</t>
         </is>
       </c>
     </row>
@@ -1591,7 +1587,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1629,11 +1625,11 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>2126</v>
+        <v>1680</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3 [1,4]</t>
+          <t>2 [1,4]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1650,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1671,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2806</v>
+        <v>2157</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1692,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1713,11 +1709,11 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>0 [0,2]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1750,691 +1746,544 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>sofa_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>8</v>
+        <v>2271</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6.0 [3.0,9.0]</t>
+          <t>995 [300,1634]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>6.0 [4.0,9.0]</t>
+          <t>922 [300,1729]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>respiratory_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2.0 [0.0,3.0]</t>
+          <t>5241 [2500,9579]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2.0 [0.0,3.0]</t>
+          <t>4938 [2351,9048]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>coagulation_max_0_24h, median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>543.2 [291.7,925.1]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>522.8 [278.3,863.5]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>liver_max_0_24h, median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>8</v>
+        <v>3148</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [40,62]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0.0 [0.0,0.0]</t>
+          <t>50 [42,65]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>cardiovascular_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>8</v>
+        <v>1301</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,4.0]</t>
+          <t>70.0 [30.0,131.2]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>1.0 [1.0,4.0]</t>
+          <t>61.0 [25.0,117.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>cns_max_0_24h, median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>8</v>
+        <v>1301</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.31 [0.14,0.50]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.0 [0.0,1.0]</t>
+          <t>0.27 [0.12,0.46]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>renal_max_0_24h, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>8</v>
+        <v>1301</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,13.2]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1.0 [0.0,2.0]</t>
+          <t>3.0 [1.0,17.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>2900</v>
+        <v>5099</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>998 [345,1734]</t>
+          <t>22.5 [5.0,73.2]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>950 [302,1771]</t>
+          <t>38.5 [8.8,87.0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>36</v>
+        <v>2098</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6110 [3037,11206]</t>
+          <t>5.0 [1.0,25.5]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5294 [2518,9883]</t>
+          <t>4.0 [1.0,23.0]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>36</v>
+        <v>2098</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>581.4 [331.0,954.9]</t>
+          <t>48.0 [16.0,107.0]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>531.2 [291.0,873.8]</t>
+          <t>51.0 [19.0,103.0]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>4023</v>
+        <v>2098</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>50 [40,61]</t>
+          <t>0.21 [0.06,0.45]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.23 [0.08,0.45]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1586</v>
+        <v>20</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>78.0 [34.0,152.2]</t>
+          <t>19.8 [17.2,22.9]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>66.0 [28.0,131.0]</t>
+          <t>19.6 [17.2,22.6]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>1586</v>
+        <v>17</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.32 [0.14,0.52]</t>
+          <t>77.9 [71.4,86.3]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0.28 [0.13,0.47]</t>
+          <t>75.3 [69.5,82.6]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>1586</v>
+        <v>346</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2.0 [1.0,10.0]</t>
+          <t>36.9 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3.0 [1.0,18.0]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>6783</v>
+        <v>17</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>27.0 [7.0,88.0]</t>
+          <t>97.9 [96.2,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>41.5 [10.0,100.0]</t>
+          <t>97.2 [95.7,98.6]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>2719</v>
+        <v>17</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4.0 [1.0,25.0]</t>
+          <t>88.1 [76.7,101.7]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.0]</t>
+          <t>87.5 [76.2,100.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>2719</v>
+        <v>1420</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>60.0 [18.0,126.0]</t>
+          <t>85.0 [67.0,121.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>56.0 [20.0,112.0]</t>
+          <t>84.0 [68.0,111.0]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>2719</v>
+        <v>1420</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.23 [0.07,0.49]</t>
+          <t>44.0 [37.0,54.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>24</v>
+        <v>792</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>19.8 [17.4,23.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>19.6 [17.3,22.7]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>77.2 [71.1,85.0]</t>
+          <t>162.0 [125.0,226.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>75.2 [69.5,82.4]</t>
+          <t>155.0 [124.0,203.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>473</v>
+        <v>10</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>37.0 [36.7,37.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>97.7 [96.0,99.0]</t>
+          <t>4.5 [4.1,5.2]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>97.2 [95.6,98.6]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>21</v>
+        <v>5932</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>87.3 [76.3,100.5]</t>
+          <t>18.1 [13.4,28.1]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>87.7 [76.3,100.4]</t>
+          <t>23.2 [13.2,36.8]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>1777</v>
+        <v>811</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>85.0 [68.0,117.0]</t>
+          <t>9.8 [8.3,11.6]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>84.0 [68.0,111.0]</t>
+          <t>10.1 [8.5,11.7]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>1777</v>
+        <v>3927</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>45.0 [38.0,54.0]</t>
+          <t>228.0 [150.8,368.2]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>46.0 [39.0,54.0]</t>
+          <t>241.0 [161.2,369.8]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>984</v>
+        <v>334</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
-        <is>
-          <t>7.3 [7.2,7.4]</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B85" s="1" t="inlineStr"/>
-      <c r="C85" t="n">
-        <v>30</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>158.0 [127.0,215.0]</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>155.0 [124.0,204.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B86" s="1" t="inlineStr"/>
-      <c r="C86" t="n">
-        <v>14</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>137.0 [134.0,140.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B87" s="1" t="inlineStr"/>
-      <c r="C87" t="n">
-        <v>16</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.1]</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>4.5 [4.1,5.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B88" s="1" t="inlineStr"/>
-      <c r="C88" t="n">
-        <v>8054</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>23.4 [13.6,36.9]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>23.6 [13.3,39.2]</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B89" s="1" t="inlineStr"/>
-      <c r="C89" t="n">
-        <v>1102</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>10.1 [8.5,11.8]</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>10.1 [8.5,11.7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B90" s="1" t="inlineStr"/>
-      <c r="C90" t="n">
-        <v>5234</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>237.0 [159.0,362.0]</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>242.0 [161.0,373.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B91" s="1" t="inlineStr"/>
-      <c r="C91" t="n">
-        <v>398</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>1.3 [1.1,1.7]</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>

--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1205</v>
+        <v>1306</v>
       </c>
       <c r="E4" t="n">
-        <v>4872</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>501 (41.6)</t>
+          <t>548 (42.0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1808 (37.1)</t>
+          <t>2032 (38.2)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>280 (23.2)</t>
+          <t>307 (23.5)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1113 (22.8)</t>
+          <t>1203 (22.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>243 (20.2)</t>
+          <t>263 (20.1)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1094 (22.5)</t>
+          <t>1168 (21.9)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>181 (15.0)</t>
+          <t>188 (14.4)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>857 (17.6)</t>
+          <t>922 (17.3)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>549 (45.6)</t>
+          <t>597 (45.7)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2042 (41.9)</t>
+          <t>2236 (42.0)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>455 (37.8)</t>
+          <t>489 (37.4)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2375 (48.7)</t>
+          <t>2611 (49.0)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>171 (14.2)</t>
+          <t>187 (14.3)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>302 (6.2)</t>
+          <t>328 (6.2)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>579 (48.0)</t>
+          <t>630 (48.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2195 (45.1)</t>
+          <t>2386 (44.8)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>385 (32.0)</t>
+          <t>418 (32.0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>241 (4.9)</t>
+          <t>269 (5.1)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84 (7.0)</t>
+          <t>88 (6.7)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>510 (10.5)</t>
+          <t>546 (10.3)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>440 (36.5)</t>
+          <t>469 (35.9)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2049 (42.1)</t>
+          <t>2216 (41.6)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>266 (22.1)</t>
+          <t>322 (24.7)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1026 (21.1)</t>
+          <t>1292 (24.3)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>380 (31.5)</t>
+          <t>446 (34.2)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1471 (30.2)</t>
+          <t>1794 (33.7)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>874 (72.5)</t>
+          <t>966 (74.0)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3653 (75.0)</t>
+          <t>4020 (75.5)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>204 (16.9)</t>
+          <t>230 (17.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>559 (11.5)</t>
+          <t>644 (12.1)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>667 (55.4)</t>
+          <t>745 (57.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2959 (60.7)</t>
+          <t>3278 (61.6)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>920 (76.3)</t>
+          <t>1020 (78.1)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3856 (79.1)</t>
+          <t>4254 (79.9)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>250 (20.7)</t>
+          <t>294 (22.5)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>877 (16.5)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>730 (60.6)</t>
+          <t>822 (62.9)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3212 (65.9)</t>
+          <t>3589 (67.4)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>853 (70.8)</t>
+          <t>935 (71.6)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3290 (67.5)</t>
+          <t>3650 (68.5)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>167 (13.9)</t>
+          <t>190 (14.5)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>815 (15.3)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1197 (99.3)</t>
+          <t>1298 (99.4)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4850 (99.5)</t>
+          <t>5303 (99.6)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>861 (71.5)</t>
+          <t>936 (71.7)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3165 (65.0)</t>
+          <t>3435 (64.5)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>481 (39.9)</t>
+          <t>521 (39.9)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1884 (38.7)</t>
+          <t>2079 (39.0)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>299 (24.8)</t>
+          <t>321 (24.6)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1262 (25.9)</t>
+          <t>1385 (26.0)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16 (1.3)</t>
+          <t>17 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85 (1.7)</t>
+          <t>101 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>347 (28.8)</t>
+          <t>375 (28.7)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1776 (36.5)</t>
+          <t>1934 (36.3)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>9 (0.7)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32 (0.7)</t>
+          <t>34 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>95 (7.9)</t>
+          <t>100 (7.7)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>239 (4.9)</t>
+          <t>255 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>34 (2.8)</t>
+          <t>37 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90 (1.8)</t>
+          <t>98 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>143 (11.9)</t>
+          <t>157 (12.0)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>245 (5.0)</t>
+          <t>274 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>924 (76.7)</t>
+          <t>1002 (76.7)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4266 (87.6)</t>
+          <t>4664 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>36 (2.8)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>138 (2.8)</t>
+          <t>150 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>486 (40.3)</t>
+          <t>528 (40.4)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1359 (27.9)</t>
+          <t>1476 (27.7)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>684 (56.8)</t>
+          <t>742 (56.8)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3375 (69.3)</t>
+          <t>3699 (69.5)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>52 (4.3)</t>
+          <t>54 (4.1)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>225 (4.6)</t>
+          <t>251 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>74 (6.1)</t>
+          <t>82 (6.3)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>287 (5.9)</t>
+          <t>306 (5.7)</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>8 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>29 (0.6)</t>
+          <t>33 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9 (0.2)</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1499,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.58 [6.63,12.65]</t>
+          <t>9.19 [6.72,13.61]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.00 [6.63,13.07]</t>
+          <t>9.36 [6.71,14.08]</t>
         </is>
       </c>
     </row>
@@ -1520,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.96 [6.25,13.42]</t>
+          <t>9.21 [6.33,14.01]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.48 [6.25,12.96]</t>
+          <t>8.75 [6.33,13.79]</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,21.00]</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
     </row>
@@ -1562,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>18.00 [12.00,27.00]</t>
+          <t>19.00 [13.00,28.25]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17.00 [12.00,25.00]</t>
+          <t>17.00 [12.00,26.00]</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1680</v>
+        <v>1817</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2157</v>
+        <v>2306</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2271</v>
+        <v>2475</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>995 [300,1634]</t>
+          <t>997 [310,1631]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>922 [300,1729]</t>
+          <t>950 [301,1767]</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5241 [2500,9579]</t>
+          <t>5743 [2737,10586]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4938 [2351,9048]</t>
+          <t>5295 [2521,9891]</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>543.2 [291.7,925.1]</t>
+          <t>562.1 [305.2,947.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>522.8 [278.3,863.5]</t>
+          <t>531.2 [291.0,874.2]</t>
         </is>
       </c>
     </row>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>3148</v>
+        <v>3420</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,62]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1835,16 +1835,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>70.0 [30.0,131.2]</t>
+          <t>80.0 [34.0,154.2]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>61.0 [25.0,117.0]</t>
+          <t>66.0 [28.0,131.0]</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1856,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.50]</t>
+          <t>0.33 [0.15,0.53]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.27 [0.12,0.46]</t>
+          <t>0.28 [0.13,0.47]</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,17.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
     </row>
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>5099</v>
+        <v>5460</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.5 [5.0,73.2]</t>
+          <t>25.0 [5.2,78.8]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>38.5 [8.8,87.0]</t>
+          <t>42.0 [10.0,100.0]</t>
         </is>
       </c>
     </row>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.5]</t>
+          <t>5.0 [1.0,27.0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,23.0]</t>
+          <t>5.0 [1.0,25.0]</t>
         </is>
       </c>
     </row>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>48.0 [16.0,107.0]</t>
+          <t>54.0 [17.5,117.5]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>51.0 [19.0,103.0]</t>
+          <t>56.0 [20.0,112.0]</t>
         </is>
       </c>
     </row>
@@ -1961,16 +1961,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.21 [0.06,0.45]</t>
+          <t>0.22 [0.07,0.48]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.45]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
     </row>
@@ -1982,16 +1982,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.8 [17.2,22.9]</t>
+          <t>19.8 [17.3,23.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.6 [17.2,22.6]</t>
+          <t>19.6 [17.3,22.7]</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.4,86.3]</t>
+          <t>77.5 [71.2,86.0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.3 [69.5,82.6]</t>
+          <t>75.2 [69.5,82.4]</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2045,16 +2045,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.9 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>97.2 [95.6,98.6]</t>
         </is>
       </c>
     </row>
@@ -2066,16 +2066,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.1 [76.7,101.7]</t>
+          <t>88.5 [77.1,101.7]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.5 [76.2,100.0]</t>
+          <t>87.7 [76.3,100.4]</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>85.0 [67.0,121.0]</t>
+          <t>85.0 [67.0,118.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,54.0]</t>
+          <t>44.0 [38.0,54.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>162.0 [125.0,226.0]</t>
+          <t>163.0 [126.0,224.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>155.0 [124.0,203.0]</t>
+          <t>155.0 [124.0,204.0]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2213,16 +2213,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>5932</v>
+        <v>6468</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.1 [13.4,28.1]</t>
+          <t>18.3 [13.4,28.5]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.2 [13.2,36.8]</t>
+          <t>23.6 [13.4,38.4]</t>
         </is>
       </c>
     </row>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.8 [8.3,11.6]</t>
+          <t>9.9 [8.3,11.6]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2255,16 +2255,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>3927</v>
+        <v>4290</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>228.0 [150.8,368.2]</t>
+          <t>228.5 [150.8,366.2]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>241.0 [161.2,369.8]</t>
+          <t>242.0 [161.0,373.0]</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1205</v>
+        <v>1306</v>
       </c>
       <c r="E4" t="n">
-        <v>4872</v>
+        <v>5325</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>501 (41.6)</t>
+          <t>548 (42.0)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1808 (37.1)</t>
+          <t>2032 (38.2)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>280 (23.2)</t>
+          <t>307 (23.5)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1113 (22.8)</t>
+          <t>1203 (22.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>243 (20.2)</t>
+          <t>263 (20.1)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1094 (22.5)</t>
+          <t>1168 (21.9)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>181 (15.0)</t>
+          <t>188 (14.4)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>857 (17.6)</t>
+          <t>922 (17.3)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>549 (45.6)</t>
+          <t>597 (45.7)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2042 (41.9)</t>
+          <t>2236 (42.0)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>455 (37.8)</t>
+          <t>489 (37.4)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2375 (48.7)</t>
+          <t>2611 (49.0)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>171 (14.2)</t>
+          <t>187 (14.3)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>302 (6.2)</t>
+          <t>328 (6.2)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>579 (48.0)</t>
+          <t>630 (48.2)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2195 (45.1)</t>
+          <t>2386 (44.8)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>385 (32.0)</t>
+          <t>418 (32.0)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>241 (4.9)</t>
+          <t>269 (5.1)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>84 (7.0)</t>
+          <t>88 (6.7)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>510 (10.5)</t>
+          <t>546 (10.3)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>440 (36.5)</t>
+          <t>469 (35.9)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2049 (42.1)</t>
+          <t>2216 (41.6)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>266 (22.1)</t>
+          <t>322 (24.7)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1026 (21.1)</t>
+          <t>1292 (24.3)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>380 (31.5)</t>
+          <t>446 (34.2)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1471 (30.2)</t>
+          <t>1794 (33.7)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>874 (72.5)</t>
+          <t>966 (74.0)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3653 (75.0)</t>
+          <t>4020 (75.5)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>204 (16.9)</t>
+          <t>230 (17.6)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>559 (11.5)</t>
+          <t>644 (12.1)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>667 (55.4)</t>
+          <t>745 (57.0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2959 (60.7)</t>
+          <t>3278 (61.6)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>920 (76.3)</t>
+          <t>1020 (78.1)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3856 (79.1)</t>
+          <t>4254 (79.9)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>250 (20.7)</t>
+          <t>294 (22.5)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>877 (16.5)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>730 (60.6)</t>
+          <t>822 (62.9)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3212 (65.9)</t>
+          <t>3589 (67.4)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>853 (70.8)</t>
+          <t>935 (71.6)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3290 (67.5)</t>
+          <t>3650 (68.5)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>167 (13.9)</t>
+          <t>190 (14.5)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>728 (14.9)</t>
+          <t>815 (15.3)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1197 (99.3)</t>
+          <t>1298 (99.4)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4850 (99.5)</t>
+          <t>5303 (99.6)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>861 (71.5)</t>
+          <t>936 (71.7)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3165 (65.0)</t>
+          <t>3435 (64.5)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>481 (39.9)</t>
+          <t>521 (39.9)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>1884 (38.7)</t>
+          <t>2079 (39.0)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>299 (24.8)</t>
+          <t>321 (24.6)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1262 (25.9)</t>
+          <t>1385 (26.0)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>16 (1.3)</t>
+          <t>17 (1.3)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85 (1.7)</t>
+          <t>101 (1.9)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>347 (28.8)</t>
+          <t>375 (28.7)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1776 (36.5)</t>
+          <t>1934 (36.3)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>9 (0.7)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>32 (0.7)</t>
+          <t>34 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>95 (7.9)</t>
+          <t>100 (7.7)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>239 (4.9)</t>
+          <t>255 (4.8)</t>
         </is>
       </c>
     </row>
@@ -1239,12 +1239,12 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>34 (2.8)</t>
+          <t>37 (2.8)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>90 (1.8)</t>
+          <t>98 (1.8)</t>
         </is>
       </c>
     </row>
@@ -1258,12 +1258,12 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>143 (11.9)</t>
+          <t>157 (12.0)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>245 (5.0)</t>
+          <t>274 (5.1)</t>
         </is>
       </c>
     </row>
@@ -1277,12 +1277,12 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>924 (76.7)</t>
+          <t>1002 (76.7)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4266 (87.6)</t>
+          <t>4664 (87.6)</t>
         </is>
       </c>
     </row>
@@ -1302,12 +1302,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>35 (2.9)</t>
+          <t>36 (2.8)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>138 (2.8)</t>
+          <t>150 (2.8)</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1321,12 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>486 (40.3)</t>
+          <t>528 (40.4)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1359 (27.9)</t>
+          <t>1476 (27.7)</t>
         </is>
       </c>
     </row>
@@ -1340,12 +1340,12 @@
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>684 (56.8)</t>
+          <t>742 (56.8)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3375 (69.3)</t>
+          <t>3699 (69.5)</t>
         </is>
       </c>
     </row>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>52 (4.3)</t>
+          <t>54 (4.1)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>225 (4.6)</t>
+          <t>251 (4.7)</t>
         </is>
       </c>
     </row>
@@ -1390,12 +1390,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>74 (6.1)</t>
+          <t>82 (6.3)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>287 (5.9)</t>
+          <t>306 (5.7)</t>
         </is>
       </c>
     </row>
@@ -1415,12 +1415,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8 (0.7)</t>
+          <t>8 (0.6)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>29 (0.6)</t>
+          <t>33 (0.6)</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>9 (0.2)</t>
+          <t>11 (0.2)</t>
         </is>
       </c>
     </row>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [51,74]</t>
+          <t>64 [52,75]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1499,16 +1499,16 @@
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8.58 [6.63,12.65]</t>
+          <t>9.19 [6.72,13.61]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.00 [6.63,13.07]</t>
+          <t>9.36 [6.71,14.08]</t>
         </is>
       </c>
     </row>
@@ -1520,16 +1520,16 @@
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8.96 [6.25,13.42]</t>
+          <t>9.21 [6.33,14.01]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.48 [6.25,12.96]</t>
+          <t>8.75 [6.33,13.79]</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>4785</v>
+        <v>5017</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,21.00]</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
     </row>
@@ -1562,16 +1562,16 @@
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1292</v>
+        <v>1614</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>18.00 [12.00,27.00]</t>
+          <t>19.00 [13.00,28.25]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17.00 [12.00,25.00]</t>
+          <t>17.00 [12.00,26.00]</t>
         </is>
       </c>
     </row>
@@ -1608,7 +1608,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6 [4,10]</t>
+          <t>7 [4,10]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1625,7 +1625,7 @@
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1680</v>
+        <v>1817</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2157</v>
+        <v>2306</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1709,7 +1709,7 @@
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1751,16 +1751,16 @@
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2271</v>
+        <v>2475</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>995 [300,1634]</t>
+          <t>997 [310,1631]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>922 [300,1729]</t>
+          <t>950 [301,1767]</t>
         </is>
       </c>
     </row>
@@ -1776,12 +1776,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5241 [2500,9579]</t>
+          <t>5743 [2737,10586]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4938 [2351,9048]</t>
+          <t>5295 [2521,9891]</t>
         </is>
       </c>
     </row>
@@ -1797,12 +1797,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>543.2 [291.7,925.1]</t>
+          <t>562.1 [305.2,947.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>522.8 [278.3,863.5]</t>
+          <t>531.2 [291.0,874.2]</t>
         </is>
       </c>
     </row>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>3148</v>
+        <v>3420</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,62]</t>
+          <t>50 [40,60]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1835,16 +1835,16 @@
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>70.0 [30.0,131.2]</t>
+          <t>80.0 [34.0,154.2]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>61.0 [25.0,117.0]</t>
+          <t>66.0 [28.0,131.0]</t>
         </is>
       </c>
     </row>
@@ -1856,16 +1856,16 @@
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.31 [0.14,0.50]</t>
+          <t>0.33 [0.15,0.53]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.27 [0.12,0.46]</t>
+          <t>0.28 [0.13,0.47]</t>
         </is>
       </c>
     </row>
@@ -1877,16 +1877,16 @@
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1301</v>
+        <v>1357</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,13.2]</t>
+          <t>3.0 [1.0,14.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,17.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
     </row>
@@ -1898,16 +1898,16 @@
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>5099</v>
+        <v>5460</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>22.5 [5.0,73.2]</t>
+          <t>25.0 [5.2,78.8]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>38.5 [8.8,87.0]</t>
+          <t>42.0 [10.0,100.0]</t>
         </is>
       </c>
     </row>
@@ -1919,16 +1919,16 @@
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.5]</t>
+          <t>5.0 [1.0,27.0]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>4.0 [1.0,23.0]</t>
+          <t>5.0 [1.0,25.0]</t>
         </is>
       </c>
     </row>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>48.0 [16.0,107.0]</t>
+          <t>54.0 [17.5,117.5]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>51.0 [19.0,103.0]</t>
+          <t>56.0 [20.0,112.0]</t>
         </is>
       </c>
     </row>
@@ -1961,16 +1961,16 @@
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2098</v>
+        <v>2182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.21 [0.06,0.45]</t>
+          <t>0.22 [0.07,0.48]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.23 [0.08,0.45]</t>
+          <t>0.24 [0.08,0.46]</t>
         </is>
       </c>
     </row>
@@ -1982,16 +1982,16 @@
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.8 [17.2,22.9]</t>
+          <t>19.8 [17.3,23.0]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.6 [17.2,22.6]</t>
+          <t>19.6 [17.3,22.7]</t>
         </is>
       </c>
     </row>
@@ -2003,16 +2003,16 @@
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.9 [71.4,86.3]</t>
+          <t>77.5 [71.2,86.0]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.3 [69.5,82.6]</t>
+          <t>75.2 [69.5,82.4]</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>346</v>
+        <v>376</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2045,16 +2045,16 @@
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.2,99.2]</t>
+          <t>97.9 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.2 [95.7,98.6]</t>
+          <t>97.2 [95.6,98.6]</t>
         </is>
       </c>
     </row>
@@ -2066,16 +2066,16 @@
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.1 [76.7,101.7]</t>
+          <t>88.5 [77.1,101.7]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.5 [76.2,100.0]</t>
+          <t>87.7 [76.3,100.4]</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>85.0 [67.0,121.0]</t>
+          <t>85.0 [67.0,118.0]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>1420</v>
+        <v>1513</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [37.0,54.0]</t>
+          <t>44.0 [38.0,54.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -2150,16 +2150,16 @@
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>162.0 [125.0,226.0]</t>
+          <t>163.0 [126.0,224.0]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>155.0 [124.0,203.0]</t>
+          <t>155.0 [124.0,204.0]</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2213,16 +2213,16 @@
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>5932</v>
+        <v>6468</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.1 [13.4,28.1]</t>
+          <t>18.3 [13.4,28.5]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.2 [13.2,36.8]</t>
+          <t>23.6 [13.4,38.4]</t>
         </is>
       </c>
     </row>
@@ -2234,11 +2234,11 @@
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>811</v>
+        <v>875</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.8 [8.3,11.6]</t>
+          <t>9.9 [8.3,11.6]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2255,16 +2255,16 @@
       </c>
       <c r="B83" s="1" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>3927</v>
+        <v>4290</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>228.0 [150.8,368.2]</t>
+          <t>228.5 [150.8,366.2]</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>241.0 [161.2,369.8]</t>
+          <t>242.0 [161.0,373.0]</t>
         </is>
       </c>
     </row>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="B84" s="1" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>334</v>
+        <v>353</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>

--- a/results/table1/coh_4.xlsx
+++ b/results/table1/coh_4.xlsx
@@ -474,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,10 +519,10 @@
       <c r="B4" s="1" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>1306</v>
+        <v>1121</v>
       </c>
       <c r="E4" t="n">
-        <v>5325</v>
+        <v>4975</v>
       </c>
     </row>
     <row r="5">
@@ -541,12 +541,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>548 (42.0)</t>
+          <t>444 (39.6)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2032 (38.2)</t>
+          <t>1871 (37.6)</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>307 (23.5)</t>
+          <t>270 (24.1)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1203 (22.6)</t>
+          <t>1125 (22.6)</t>
         </is>
       </c>
     </row>
@@ -579,12 +579,12 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>263 (20.1)</t>
+          <t>233 (20.8)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1168 (21.9)</t>
+          <t>1106 (22.2)</t>
         </is>
       </c>
     </row>
@@ -598,12 +598,12 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>188 (14.4)</t>
+          <t>174 (15.5)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>922 (17.3)</t>
+          <t>873 (17.5)</t>
         </is>
       </c>
     </row>
@@ -623,12 +623,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>597 (45.7)</t>
+          <t>509 (45.4)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2236 (42.0)</t>
+          <t>2084 (41.9)</t>
         </is>
       </c>
     </row>
@@ -648,12 +648,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>489 (37.4)</t>
+          <t>389 (34.7)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2611 (49.0)</t>
+          <t>2390 (48.0)</t>
         </is>
       </c>
     </row>
@@ -667,12 +667,12 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>187 (14.3)</t>
+          <t>166 (14.8)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>328 (6.2)</t>
+          <t>318 (6.4)</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>630 (48.2)</t>
+          <t>566 (50.5)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2386 (44.8)</t>
+          <t>2267 (45.6)</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>418 (32.0)</t>
+          <t>376 (33.5)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>269 (5.1)</t>
+          <t>245 (4.9)</t>
         </is>
       </c>
     </row>
@@ -736,12 +736,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88 (6.7)</t>
+          <t>82 (7.3)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>546 (10.3)</t>
+          <t>515 (10.4)</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>469 (35.9)</t>
+          <t>415 (37.0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2216 (41.6)</t>
+          <t>2091 (42.0)</t>
         </is>
       </c>
     </row>
@@ -786,12 +786,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>322 (24.7)</t>
+          <t>265 (23.6)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1292 (24.3)</t>
+          <t>1172 (23.6)</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>446 (34.2)</t>
+          <t>362 (32.3)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1794 (33.7)</t>
+          <t>1626 (32.7)</t>
         </is>
       </c>
     </row>
@@ -836,12 +836,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>966 (74.0)</t>
+          <t>835 (74.5)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4020 (75.5)</t>
+          <t>3783 (76.0)</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>230 (17.6)</t>
+          <t>91 (8.1)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>644 (12.1)</t>
+          <t>407 (8.2)</t>
         </is>
       </c>
     </row>
@@ -886,12 +886,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>745 (57.0)</t>
+          <t>622 (55.5)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3278 (61.6)</t>
+          <t>3024 (60.8)</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1020 (78.1)</t>
+          <t>880 (78.5)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4254 (79.9)</t>
+          <t>3998 (80.4)</t>
         </is>
       </c>
     </row>
@@ -936,12 +936,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>294 (22.5)</t>
+          <t>141 (12.6)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>877 (16.5)</t>
+          <t>605 (12.2)</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>822 (62.9)</t>
+          <t>689 (61.5)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3589 (67.4)</t>
+          <t>3318 (66.7)</t>
         </is>
       </c>
     </row>
@@ -986,12 +986,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>935 (71.6)</t>
+          <t>795 (70.9)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3650 (68.5)</t>
+          <t>3386 (68.1)</t>
         </is>
       </c>
     </row>
@@ -1011,12 +1011,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>190 (14.5)</t>
+          <t>157 (14.0)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>815 (15.3)</t>
+          <t>761 (15.3)</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1298 (99.4)</t>
+          <t>1115 (99.5)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5303 (99.6)</t>
+          <t>4955 (99.6)</t>
         </is>
       </c>
     </row>
@@ -1061,12 +1061,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>936 (71.7)</t>
+          <t>765 (68.2)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3435 (64.5)</t>
+          <t>3128 (62.9)</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>521 (39.9)</t>
+          <t>412 (36.8)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2079 (39.0)</t>
+          <t>1857 (37.3)</t>
         </is>
       </c>
     </row>
@@ -1111,12 +1111,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>321 (24.6)</t>
+          <t>283 (25.2)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1385 (26.0)</t>
+          <t>1287 (25.9)</t>
         </is>
       </c>
     </row>
@@ -1136,12 +1136,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>17 (1.3)</t>
+          <t>12 (1.1)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>101 (1.9)</t>
+          <t>99 (2.0)</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>375 (28.7)</t>
+          <t>296 (26.4)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1934 (36.3)</t>
+          <t>1744 (35.1)</t>
         </is>
       </c>
     </row>
@@ -1201,12 +1201,12 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>9 (0.7)</t>
+          <t>9 (0.8)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>34 (0.6)</t>
+          <t>34 (0.7)</t>
         </is>
       </c>
     </row>
@@ -1220,12 +1220,12 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>100 (7.7)</t>
+          <t>103 (9.2)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>255 (4.8)</t>
+          <t>257 (5.2)</t>
         </is>
       </c>
     </row>
@@ -1233,37 +1233,43 @@
       <c r="A35" s="1" t="n"/>
       <c r="B35" s="1" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>Absent</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>37 (2.8)</t>
+          <t>1008 (89.9)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>98 (1.8)</t>
+          <t>4684 (94.2)</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Diabetes Type, n (%)</t>
+        </is>
+      </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0</v>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>157 (12.0)</t>
+          <t>17 (1.5)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>274 (5.1)</t>
+          <t>118 (2.4)</t>
         </is>
       </c>
     </row>
@@ -1271,88 +1277,94 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1002 (76.7)</t>
+          <t>432 (38.5)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4664 (87.6)</t>
+          <t>1312 (26.4)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Diabetes Type, n (%)</t>
-        </is>
-      </c>
+      <c r="A38" s="1" t="n"/>
       <c r="B38" s="1" t="inlineStr">
         <is>
+          <t>Absent</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>672 (59.9)</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3545 (71.3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Connective Tissue Disease, n (%)</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>36 (2.8)</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>150 (2.8)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>2.0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>528 (40.4)</t>
+          <t>45 (4.0)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1476 (27.7)</t>
+          <t>221 (4.4)</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Pneumonia, n (%)</t>
+        </is>
+      </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>Absent</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>742 (56.8)</t>
+          <t>76 (6.8)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3699 (69.5)</t>
+          <t>294 (5.9)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Connective Tissue Disease, n (%)</t>
+          <t>Urinary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
@@ -1365,19 +1377,19 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>54 (4.1)</t>
+          <t>8 (0.7)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>251 (4.7)</t>
+          <t>32 (0.6)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pneumonia, n (%)</t>
+          <t>Biliary Tract Infection, n (%)</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1388,21 +1400,17 @@
       <c r="C42" t="n">
         <v>0</v>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>82 (6.3)</t>
-        </is>
-      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>306 (5.7)</t>
+          <t>10 (0.2)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Urinary Tract Infection, n (%)</t>
+          <t>Skin Infection, n (%)</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
@@ -1415,263 +1423,259 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>8 (0.6)</t>
+          <t>1 (0.1)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33 (0.6)</t>
+          <t>6 (0.1)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Biliary Tract Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>Age, median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr"/>
       <c r="C44" t="n">
         <v>0</v>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>64 [51,75]</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>11 (0.2)</t>
+          <t>67 [56,77]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Skin Infection, n (%)</t>
-        </is>
-      </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
+          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4659</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2 (0.2)</t>
+          <t>9.25 [6.75,13.71]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>6 (0.1)</t>
+          <t>9.27 [6.75,13.84]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Age, median [Q1,Q3]</t>
+          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1437</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>64 [52,75]</t>
+          <t>9.27 [6.33,13.97]</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>67 [56,77]</t>
+          <t>8.75 [6.38,13.83]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>5017</v>
+        <v>4659</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>9.19 [6.72,13.61]</t>
+          <t>14.00 [9.00,23.00]</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>9.36 [6.71,14.08]</t>
+          <t>14.00 [9.00,22.00]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>ICU LOS (days, if survived), median [Q1,Q3]</t>
+          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1614</v>
+        <v>1437</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.21 [6.33,14.01]</t>
+          <t>19.00 [13.00,28.00]</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>8.75 [6.33,13.79]</t>
+          <t>17.00 [12.00,26.00]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if deceased), median [Q1,Q3]</t>
+          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>5017</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,22.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14.00 [9.00,23.00]</t>
+          <t>6 [4,8]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Hospital LOS (days, if survived), median [Q1,Q3]</t>
+          <t>SOFA Score (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1614</v>
+        <v>0</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19.00 [13.00,28.25]</t>
+          <t>6 [3,10]</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>17.00 [12.00,26.00]</t>
+          <t>6 [4,9]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Charlson Comorbidity Index, median [Q1,Q3]</t>
+          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1642</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>3 [1,4]</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6 [4,8]</t>
+          <t>3 [2,3]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>SOFA Score (admission), median [Q1,Q3]</t>
+          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>7 [4,10]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>6 [4,9]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Respiratory (admission), median [Q1,Q3]</t>
+          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1817</v>
+        <v>2149</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2 [1,4]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3 [2,3]</t>
+          <t>0 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Coagulation (admission), median [Q1,Q3]</t>
+          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>1 [1,4]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Liver (admission), median [Q1,Q3]</t>
+          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>2306</v>
+        <v>25</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>0 [0,2]</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1683,607 +1687,565 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Cardiovascular (admission), median [Q1,Q3]</t>
+          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [0,2]</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1 [1,4]</t>
+          <t>1 [0,1]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>SOFA: CNS (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>26</v>
+        <v>2246</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0 [0,2]</t>
+          <t>1000 [319,1740]</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0 [0,1]</t>
+          <t>978 [317,1805]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>SOFA: Renal (admission), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>5933 [2855,10714]</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>1 [0,2]</t>
+          <t>5388 [2575,9992]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (first 24h), median [Q1,Q3]</t>
+          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B59" s="1" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>2475</v>
+        <v>26</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>997 [310,1631]</t>
+          <t>570.9 [309.1,948.5]</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>950 [301,1767]</t>
+          <t>535.0 [297.1,877.6]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay), median [Q1,Q3]</t>
+          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>30</v>
+        <v>3098</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5743 [2737,10586]</t>
+          <t>50 [40,62]</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5295 [2521,9891]</t>
+          <t>50 [42,66]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Fluids Volume (whole stay, normalized by ICU LOS), median [Q1,Q3]</t>
+          <t>MV_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>30</v>
+        <v>1218</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>562.1 [305.2,947.0]</t>
+          <t>77.5 [33.0,149.0]</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>531.2 [291.0,874.2]</t>
+          <t>67.0 [28.0,131.0]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>FiO2 (mean %, first 24h), median [Q1,Q3]</t>
+          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>3420</v>
+        <v>1218</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>50 [40,60]</t>
+          <t>0.32 [0.14,0.52]</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>50 [42,65]</t>
+          <t>0.28 [0.13,0.47]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>MV_time_abs_hours, median [Q1,Q3]</t>
+          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1357</v>
+        <v>1218</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>80.0 [34.0,154.2]</t>
+          <t>3.0 [1.0,12.0]</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>66.0 [28.0,131.0]</t>
+          <t>3.0 [1.0,18.0]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>MV Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1357</v>
+        <v>5350</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.33 [0.15,0.53]</t>
+          <t>57.0 [15.0,115.0]</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.28 [0.13,0.47]</t>
+          <t>51.0 [18.0,123.0]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>MV_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B65" s="1" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1357</v>
+        <v>2058</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,14.0]</t>
+          <t>5.0 [1.0,27.0]</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3.0 [1.0,18.0]</t>
+          <t>5.0 [1.0,26.0]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>RRT_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>VP_time_abs_hours, median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>5460</v>
+        <v>2058</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>25.0 [5.2,78.8]</t>
+          <t>48.0 [16.0,109.0]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>42.0 [10.0,100.0]</t>
+          <t>54.0 [20.0,109.0]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>VP_init_offset_abs_hours, median [Q1,Q3]</t>
+          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B67" s="1" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2182</v>
+        <v>2058</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>5.0 [1.0,27.0]</t>
+          <t>0.19 [0.06,0.43]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5.0 [1.0,25.0]</t>
+          <t>0.23 [0.08,0.45]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>VP_time_abs_hours, median [Q1,Q3]</t>
+          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2182</v>
+        <v>24</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>54.0 [17.5,117.5]</t>
+          <t>19.9 [17.4,23.2]</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>56.0 [20.0,112.0]</t>
+          <t>19.7 [17.3,22.8]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Vasopressor Time (duration in the stay, % of ICU LOS), median [Q1,Q3]</t>
+          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B69" s="1" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2182</v>
+        <v>21</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.22 [0.07,0.48]</t>
+          <t>78.2 [71.9,86.4]</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0.24 [0.08,0.46]</t>
+          <t>75.6 [69.7,82.7]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Respiratory Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>24</v>
+        <v>345</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>19.8 [17.3,23.0]</t>
+          <t>37.0 [36.6,37.4]</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>19.6 [17.3,22.7]</t>
+          <t>36.9 [36.6,37.3]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>Mean Blood Pressure (mean, first 24h), median [Q1,Q3]</t>
+          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B71" s="1" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>77.5 [71.2,86.0]</t>
+          <t>97.8 [96.1,99.2]</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>75.2 [69.5,82.4]</t>
+          <t>97.2 [95.6,98.6]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Temperature (mean, first 24h), median [Q1,Q3]</t>
+          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>376</v>
+        <v>21</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.4]</t>
+          <t>89.1 [77.7,102.4]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>36.9 [36.6,37.3]</t>
+          <t>87.9 [76.5,100.7]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>SpO2 (%, mean, first 24h), median [Q1,Q3]</t>
+          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B73" s="1" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>23</v>
+        <v>1359</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>97.9 [96.1,99.2]</t>
+          <t>86.0 [67.0,119.0]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>97.2 [95.6,98.6]</t>
+          <t>84.0 [68.0,111.0]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Heart Rate (mean, first 24h), median [Q1,Q3]</t>
+          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>21</v>
+        <v>1359</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>88.5 [77.1,101.7]</t>
+          <t>45.0 [38.0,55.0]</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>87.7 [76.3,100.4]</t>
+          <t>46.0 [39.0,54.0]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>PaO2 (min, first 24h), median [Q1,Q3]</t>
+          <t>pH (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B75" s="1" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>1513</v>
+        <v>771</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>85.0 [67.0,118.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>84.0 [68.0,111.0]</t>
+          <t>7.3 [7.2,7.4]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>PaCO2 (max, first 24h), median [Q1,Q3]</t>
+          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>1513</v>
+        <v>24</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>44.0 [38.0,54.0]</t>
+          <t>164.0 [127.0,224.0]</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>46.0 [39.0,54.0]</t>
+          <t>155.0 [125.0,203.0]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>pH (min, first 24h), median [Q1,Q3]</t>
+          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B77" s="1" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>845</v>
+        <v>12</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>7.3 [7.2,7.4]</t>
+          <t>137.0 [134.0,140.0]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Glucose (max, first 24h), median [Q1,Q3]</t>
+          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>163.0 [126.0,224.0]</t>
+          <t>4.5 [4.1,5.1]</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>155.0 [124.0,204.0]</t>
+          <t>4.5 [4.1,5.0]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Sodium (min, first 24h), median [Q1,Q3]</t>
+          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B79" s="1" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>12</v>
+        <v>5953</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>20.4 [13.4,30.8]</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>137.0 [134.0,140.0]</t>
+          <t>23.5 [12.9,37.7]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Potassium (max, first 24h), median [Q1,Q3]</t>
+          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B80" s="1" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>14</v>
+        <v>829</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.2]</t>
+          <t>10.1 [8.5,11.8]</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4.5 [4.1,5.0]</t>
+          <t>10.1 [8.6,11.8]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>Cortisol (min, first 24h), median [Q1,Q3]</t>
+          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B81" s="1" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>6468</v>
+        <v>3945</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>18.3 [13.4,28.5]</t>
+          <t>225.0 [150.0,355.5]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>23.6 [13.4,38.4]</t>
+          <t>239.0 [160.0,370.5]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Hemoglobin (min, first 24h), median [Q1,Q3]</t>
+          <t>INR (max, first 24h), median [Q1,Q3]</t>
         </is>
       </c>
       <c r="B82" s="1" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>875</v>
+        <v>327</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>9.9 [8.3,11.6]</t>
+          <t>1.4 [1.2,1.8]</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
-        <is>
-          <t>10.1 [8.5,11.7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Fibrinogen (min, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B83" s="1" t="inlineStr"/>
-      <c r="C83" t="n">
-        <v>4290</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>228.5 [150.8,366.2]</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>242.0 [161.0,373.0]</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>INR (max, first 24h), median [Q1,Q3]</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr"/>
-      <c r="C84" t="n">
-        <v>353</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>1.4 [1.2,1.8]</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
         <is>
           <t>1.4 [1.2,1.8]</t>
         </is>
@@ -2291,11 +2253,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A38:A40"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A32:A37"/>
+    <mergeCell ref="A36:A38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
